--- a/testPlan/Arcus Test Plan Cisco WebScraper.xlsx
+++ b/testPlan/Arcus Test Plan Cisco WebScraper.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23607"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{619A8CF2-87AD-4179-9DA8-C851FC16C680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAB6ED7D-7E16-4745-9759-F8362C67D571}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -321,11 +321,11 @@
   </si>
   <si>
     <t>Wrong paths:
-- //Test/Test
-- /Test//Test
+- //Test@Test
+- /Test/!Test
 - \Test\Test
 - Test/Test
-- /Test/Test//
+- /Test/Test./
 - /Test\Test
 - \Test/Test
 - Test</t>
@@ -356,8 +356,7 @@
 - category
 - model
 - path
-- release
--downloads</t>
+- release</t>
   </si>
   <si>
     <t>Negative Integration Test</t>
@@ -628,9 +627,6 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -639,9 +635,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -658,16 +651,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1003,696 +1002,696 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11:J22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="6"/>
-    <col min="3" max="3" width="40.5703125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="38" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38" style="8" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="56.85546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="4"/>
+    <col min="3" max="3" width="40.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="38" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38" style="6" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="56.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:11" ht="60" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="9">
-        <v>44178</v>
-      </c>
-      <c r="J4" s="12" t="s">
+      <c r="I4" s="7">
+        <v>44178</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="45">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="9">
-        <v>44178</v>
-      </c>
-      <c r="J5" s="12" t="s">
+      <c r="I5" s="7">
+        <v>44178</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="75">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="9">
-        <v>44178</v>
-      </c>
-      <c r="J6" s="12" t="s">
+      <c r="I6" s="7">
+        <v>44178</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="135">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="9">
-        <v>44178</v>
-      </c>
-      <c r="J7" s="12" t="s">
+      <c r="I7" s="7">
+        <v>44178</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="213" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="9">
-        <v>44178</v>
-      </c>
-      <c r="J8" s="12" t="s">
+      <c r="I8" s="7">
+        <v>44178</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="242.25" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="9">
-        <v>44178</v>
-      </c>
-      <c r="J9" s="12" t="s">
+      <c r="I9" s="7">
+        <v>44178</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="80.25" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="9">
-        <v>44178</v>
-      </c>
-      <c r="J10" s="12" t="s">
+      <c r="I10" s="7">
+        <v>44178</v>
+      </c>
+      <c r="J10" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="186" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="9">
-        <v>44178</v>
-      </c>
-      <c r="J11" s="14" t="s">
+      <c r="I11" s="7">
+        <v>44178</v>
+      </c>
+      <c r="J11" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="75">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I12" s="9">
-        <v>44178</v>
-      </c>
-      <c r="J12" s="14" t="s">
+      <c r="I12" s="7">
+        <v>44178</v>
+      </c>
+      <c r="J12" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="135">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I13" s="9">
-        <v>44178</v>
-      </c>
-      <c r="J13" s="14" t="s">
+      <c r="I13" s="7">
+        <v>44178</v>
+      </c>
+      <c r="J13" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="135">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6" t="s">
+    <row r="14" spans="1:11" ht="120">
+      <c r="A14" s="13"/>
+      <c r="B14" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I14" s="9">
-        <v>44178</v>
-      </c>
-      <c r="J14" s="14" t="s">
+      <c r="I14" s="7">
+        <v>44178</v>
+      </c>
+      <c r="J14" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="135">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="I15" s="9">
-        <v>44178</v>
-      </c>
-      <c r="J15" s="14" t="s">
+      <c r="I15" s="7">
+        <v>44178</v>
+      </c>
+      <c r="J15" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="90">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="I16" s="9">
-        <v>44178</v>
-      </c>
-      <c r="J16" s="14" t="s">
+      <c r="I16" s="7">
+        <v>44178</v>
+      </c>
+      <c r="J16" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="75">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="I17" s="9">
-        <v>44178</v>
-      </c>
-      <c r="J17" s="14" t="s">
+      <c r="I17" s="7">
+        <v>44178</v>
+      </c>
+      <c r="J17" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="75">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="I18" s="9">
-        <v>44178</v>
-      </c>
-      <c r="J18" s="14" t="s">
+      <c r="I18" s="7">
+        <v>44178</v>
+      </c>
+      <c r="J18" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="141" customHeight="1">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="I19" s="9">
-        <v>44178</v>
-      </c>
-      <c r="J19" s="14" t="s">
+      <c r="I19" s="7">
+        <v>44178</v>
+      </c>
+      <c r="J19" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="75">
-      <c r="A20" s="11"/>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="I20" s="9">
-        <v>44178</v>
-      </c>
-      <c r="J20" s="14" t="s">
+      <c r="I20" s="7">
+        <v>44178</v>
+      </c>
+      <c r="J20" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="K20" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="105">
-      <c r="A21" s="11"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="14"/>
+      <c r="B21" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="I21" s="9">
-        <v>44178</v>
-      </c>
-      <c r="J21" s="14" t="s">
+      <c r="I21" s="7">
+        <v>44178</v>
+      </c>
+      <c r="J21" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="K21" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="45">
-      <c r="A22" s="11"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="I22" s="9">
-        <v>44178</v>
-      </c>
-      <c r="J22" s="14" t="s">
+      <c r="I22" s="7">
+        <v>44178</v>
+      </c>
+      <c r="J22" s="10" t="s">
         <v>61</v>
       </c>
     </row>
